--- a/FMKT.xlsx
+++ b/FMKT.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t/>
   </si>
@@ -34,40 +34,16 @@
     <t>PT</t>
   </si>
   <si>
-    <t>20139380</t>
-  </si>
-  <si>
-    <t>IDM CASSEROLE 2.2L</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>20139381</t>
-  </si>
-  <si>
-    <t>IDM CASSEROLE 1.5L</t>
+    <t>20102652</t>
+  </si>
+  <si>
+    <t>INDOMARET CARD 2020</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>20139382</t>
-  </si>
-  <si>
-    <t>IDM CASSEROLE 1L</t>
-  </si>
-  <si>
-    <t>20102652</t>
-  </si>
-  <si>
-    <t>INDOMARET CARD 2020</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
 </sst>
 </file>
@@ -460,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -530,66 +506,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
